--- a/output/resultados_IPM.xlsx
+++ b/output/resultados_IPM.xlsx
@@ -970,7 +970,7 @@
         <v>0.098</v>
       </c>
       <c r="J4">
-        <v>79025.89828303661</v>
+        <v>79025.89828303662</v>
       </c>
       <c r="K4">
         <v>25367313.34885475</v>
@@ -1110,7 +1110,7 @@
         <v>0.098</v>
       </c>
       <c r="J8">
-        <v>107867.5214273758</v>
+        <v>107867.5214273759</v>
       </c>
       <c r="K8">
         <v>31497316.25679375</v>
@@ -1253,7 +1253,7 @@
         <v>136065.1445717151</v>
       </c>
       <c r="K12">
-        <v>37690045.04636507</v>
+        <v>37690045.04636508</v>
       </c>
     </row>
   </sheetData>
